--- a/Analysis/400 flows comparison/Workspace with Table Occupancy.xlsx
+++ b/Analysis/400 flows comparison/Workspace with Table Occupancy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vibzo\Code\iw15\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vibzo\Code\iw15\Analysis\400 flows comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -728,11 +728,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234556408"/>
-        <c:axId val="234555624"/>
+        <c:axId val="230698520"/>
+        <c:axId val="230703224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234556408"/>
+        <c:axId val="230698520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,12 +845,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234555624"/>
+        <c:crossAx val="230703224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234555624"/>
+        <c:axId val="230703224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,7 +963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234556408"/>
+        <c:crossAx val="230698520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1678,11 +1678,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234555232"/>
-        <c:axId val="234556016"/>
+        <c:axId val="230702048"/>
+        <c:axId val="230697736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234555232"/>
+        <c:axId val="230702048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,12 +1739,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234556016"/>
+        <c:crossAx val="230697736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234556016"/>
+        <c:axId val="230697736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,7 +1801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234555232"/>
+        <c:crossAx val="230702048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2516,11 +2516,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234558368"/>
-        <c:axId val="234559152"/>
+        <c:axId val="230696560"/>
+        <c:axId val="230702440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234558368"/>
+        <c:axId val="230696560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2577,12 +2577,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234559152"/>
+        <c:crossAx val="230702440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234559152"/>
+        <c:axId val="230702440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2639,7 +2639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234558368"/>
+        <c:crossAx val="230696560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3354,11 +3354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234554056"/>
-        <c:axId val="234557192"/>
+        <c:axId val="230697344"/>
+        <c:axId val="230698128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234554056"/>
+        <c:axId val="230697344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3415,12 +3415,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234557192"/>
+        <c:crossAx val="230698128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234557192"/>
+        <c:axId val="230698128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3477,7 +3477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234554056"/>
+        <c:crossAx val="230697344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4197,11 +4197,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234558760"/>
-        <c:axId val="234554448"/>
+        <c:axId val="230700480"/>
+        <c:axId val="230701264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234558760"/>
+        <c:axId val="230700480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4258,12 +4258,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234554448"/>
+        <c:crossAx val="230701264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234554448"/>
+        <c:axId val="230701264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4320,7 +4320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234558760"/>
+        <c:crossAx val="230700480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7185,16 +7185,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7216,15 +7216,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7246,15 +7246,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7601,8 +7601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
